--- a/Firmware/Dew-Controller.X/Berechnungen.xlsx
+++ b/Firmware/Dew-Controller.X/Berechnungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André\Desktop\Projects\Dew-Controller\Firmware\Dew-Controller.X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2550E3B-6684-4BB6-BDBB-215707B663DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E12081A-3C94-4EC3-B707-3334971879EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{C889AF70-DC05-445E-A0D5-5FFE1A95FA96}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>A</t>
   </si>
@@ -99,9 +99,6 @@
     <t>T2</t>
   </si>
   <si>
-    <t>dQ/dt</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -141,12 +138,6 @@
     <t>theta himmel</t>
   </si>
   <si>
-    <t>Tw2</t>
-  </si>
-  <si>
-    <t>Tw1</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
   <si>
@@ -180,22 +171,28 @@
     <t>s (Dicke)</t>
   </si>
   <si>
-    <t>Summe</t>
-  </si>
-  <si>
-    <t>Mittelwert</t>
-  </si>
-  <si>
-    <t>Laufende Summe</t>
-  </si>
-  <si>
-    <t>Anzahl</t>
-  </si>
-  <si>
-    <t>mit Tubus….vernachlaessigbar</t>
-  </si>
-  <si>
-    <t>halber Linsendurchmesser</t>
+    <t xml:space="preserve">phi </t>
+  </si>
+  <si>
+    <t>Tubus ist vernachlaessigbar</t>
+  </si>
+  <si>
+    <t>Ofs</t>
+  </si>
+  <si>
+    <t>phi = dt / Rth; dt = phi * Rth</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>Tw2 = theta</t>
+  </si>
+  <si>
+    <t>Tw1 = tau+ofs</t>
+  </si>
+  <si>
+    <t>offset</t>
   </si>
 </sst>
 </file>
@@ -556,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212E37F5-8AC9-4B9A-AAFD-BB38198DF626}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,24 +565,25 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -595,17 +593,17 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="F2">
         <v>0.85699999999999998</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -617,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -628,11 +626,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -640,337 +638,363 @@
         <f>B2*B4</f>
         <v>1.6214639331119927</v>
       </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
         <v>49</v>
       </c>
-      <c r="K14">
-        <f>K17/(G2*G18)</f>
-        <v>3.0951953148948919</v>
-      </c>
-      <c r="L14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>17.62</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>0.95</v>
+      </c>
+      <c r="I15" t="s">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>0.1</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="J15">
+        <f>4*0.0254</f>
+        <v>0.1016</v>
+      </c>
+      <c r="K15" t="s">
         <v>20</v>
       </c>
-      <c r="J15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15">
-        <f>B23</f>
-        <v>6.2709343753098068</v>
-      </c>
-      <c r="L15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>243.12</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <f>0.0000000567</f>
+        <v>5.6699999999999998E-8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
         <v>15</v>
       </c>
-      <c r="G16">
-        <f>2*PI()*G15</f>
-        <v>0.62831853071795862</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="J16">
+        <f>2*PI()*J15</f>
+        <v>0.63837162720944596</v>
+      </c>
+      <c r="K16" t="s">
         <v>20</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="s">
         <v>38</v>
       </c>
-      <c r="K16">
-        <f>B19</f>
-        <v>4</v>
-      </c>
-      <c r="L16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
+      <c r="N16">
+        <v>236</v>
+      </c>
+      <c r="O16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f>14*0.0254</f>
+        <v>0.35559999999999997</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
         <v>16</v>
       </c>
-      <c r="G17">
-        <v>0.03</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="J17">
+        <v>0.04</v>
+      </c>
+      <c r="K17" t="s">
         <v>20</v>
       </c>
-      <c r="J17" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17">
-        <f>G15/2</f>
-        <v>0.05</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
       <c r="M17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>J18</f>
+        <v>2.553486508837784E-2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0.95</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>0</v>
       </c>
-      <c r="G18">
-        <f>G17*G16</f>
-        <v>1.8849555921538759E-2</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="F18">
+        <f>PI()*F17^2/4</f>
+        <v>9.9314665903109542E-2</v>
+      </c>
+      <c r="G18" t="s">
         <v>21</v>
       </c>
-      <c r="J18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18">
-        <f>G2*G18*(K15-K16)/K17</f>
-        <v>0.73369663115651373</v>
-      </c>
-      <c r="L18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>J17*J16</f>
+        <v>2.553486508837784E-2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18">
+        <f>N15/(N16*N17)</f>
+        <v>4.9782383273939642E-4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <f>273.15+B23</f>
+        <v>278.4209343753098</v>
+      </c>
+      <c r="M19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19">
+        <f>J24/(F2*J18)</f>
+        <v>2.3213964861711687</v>
+      </c>
+      <c r="O19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <f>B16*((((B15*B19)/(B16+B19))+LN(B18))/(((B15*B16)/(B16+B19))-LN(B18)))</f>
         <v>3.2709343753098072</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21">
-        <v>0.95</v>
-      </c>
-      <c r="J21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <f>273.15+B25</f>
+        <v>248.14999999999998</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20">
+        <f>J22-J23</f>
+        <v>2.2709343753098068</v>
+      </c>
+      <c r="O20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <f>F15*F16*F18*(F19^4-F20^4)</f>
+        <v>11.860947861723522</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21">
+        <f>J24/(F2*J18)</f>
+        <v>2.3213964861711687</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21">
+        <f>N20/(N18+N19)</f>
+        <v>0.9780524313813338</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22">
+        <f>B20+J20</f>
+        <v>6.2709343753098068</v>
+      </c>
+      <c r="K22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>31</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22">
-        <f>0.0000000567</f>
-        <v>5.6699999999999998E-8</v>
-      </c>
-      <c r="H22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22">
-        <v>236</v>
-      </c>
-      <c r="L22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
       </c>
       <c r="B23">
         <f>B20+B22</f>
-        <v>6.2709343753098068</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <f>4*0.0254</f>
-        <v>0.1016</v>
-      </c>
-      <c r="H23" t="s">
+        <v>5.2709343753098068</v>
+      </c>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23">
+        <f>B19</f>
+        <v>4</v>
+      </c>
+      <c r="K23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24">
+        <f>J15/2</f>
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="K24" t="s">
         <v>20</v>
       </c>
-      <c r="J23" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f>G18</f>
-        <v>1.8849555921538759E-2</v>
-      </c>
-      <c r="L23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f>PI()*G23^2/4</f>
-        <v>8.107319665559963E-3</v>
-      </c>
-      <c r="H24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24">
-        <f>K21/(K22*K23)</f>
-        <v>6.7438535208430225E-4</v>
-      </c>
-      <c r="L24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25">
         <v>-25</v>
       </c>
-      <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25">
-        <f>273.15+B23</f>
-        <v>279.4209343753098</v>
-      </c>
-      <c r="J25" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25">
-        <f>K17/(G2*G18)</f>
-        <v>3.0951953148948919</v>
-      </c>
-      <c r="L25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26">
-        <f>273.15+B25</f>
-        <v>248.14999999999998</v>
-      </c>
-      <c r="J26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26">
-        <f>K15-K16</f>
-        <v>2.2709343753098068</v>
-      </c>
-      <c r="L26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25">
+        <f>(J22-J23)/J21</f>
+        <v>0.97826217487535172</v>
+      </c>
+      <c r="K25" t="s">
         <v>24</v>
       </c>
-      <c r="G27">
-        <f>G21*G22*G24*(G25^4-G26^4)</f>
-        <v>1.0061449593950373</v>
-      </c>
-      <c r="H27" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27">
-        <f>K26/(K24+K25)</f>
-        <v>0.73353680716234304</v>
-      </c>
-      <c r="L27" t="s">
-        <v>25</v>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28">
+        <f>F21*J21</f>
+        <v>27.53396268886442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29">
+        <f>J28-B20</f>
+        <v>24.263028313554614</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
